--- a/files/synthetic/invoice_synth_1.xlsx
+++ b/files/synthetic/invoice_synth_1.xlsx
@@ -424,28 +424,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Due Date: 02/14/2024</t>
+          <t>Invoice Number: 1726</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amount Due: $3644.16</t>
+          <t>Client Name: Maria Garcia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Client Name: Chris Johnson</t>
+          <t>PO Number: 2096</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date: 02/08/2024</t>
+          <t>Payment Terms: 3697</t>
         </is>
       </c>
     </row>
